--- a/REGULAR/MAYORS OFFICE/MENDOZA, LOURDES G..xlsx
+++ b/REGULAR/MAYORS OFFICE/MENDOZA, LOURDES G..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="417">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1248,9 +1248,6 @@
     <t>A(2-0-0)</t>
   </si>
   <si>
-    <t>11/2,9/2022</t>
-  </si>
-  <si>
     <t>UT(0-3-6)</t>
   </si>
   <si>
@@ -1273,6 +1270,21 @@
   </si>
   <si>
     <t>UT(0-1-53)</t>
+  </si>
+  <si>
+    <t>10/23,24/2023</t>
+  </si>
+  <si>
+    <t>10//31/2023</t>
+  </si>
+  <si>
+    <t>11/23,24/2023</t>
+  </si>
+  <si>
+    <t>11/22/2023, 12/18,22,28,29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -2152,7 +2164,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,7 +2207,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2271,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2331,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2385,7 +2397,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2460,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2558,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,7 +2617,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2682,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2713,7 +2725,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2788,7 +2800,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2974,7 +2986,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3040,7 +3052,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3098,7 +3110,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,7 +3176,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3220,7 +3232,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3295,7 +3307,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3338,7 +3350,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3404,7 +3416,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3472,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3558,7 +3570,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3621,7 +3633,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3687,7 +3699,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K1325" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K1331" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="21"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="20"/>
@@ -4065,12 +4077,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L1325"/>
+  <dimension ref="A2:L1331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A603" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A618" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="H595" sqref="H595"/>
+      <selection pane="bottomLeft" activeCell="I643" sqref="I643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4231,7 +4243,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.098000000000241</v>
+        <v>22.848000000000241</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4241,7 +4253,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>70.960000000000036</v>
+        <v>66.710000000000036</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17215,7 +17227,7 @@
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C591" s="13"/>
       <c r="D591" s="39">
@@ -17261,7 +17273,7 @@
     <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C593" s="13"/>
       <c r="D593" s="39">
@@ -17329,7 +17341,7 @@
     <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C596" s="13"/>
       <c r="D596" s="39">
@@ -17373,7 +17385,7 @@
     <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C598" s="13"/>
       <c r="D598" s="39">
@@ -17504,13 +17516,13 @@
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
       <c r="K603" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C604" s="13"/>
       <c r="D604" s="39">
@@ -17556,7 +17568,7 @@
     <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C606" s="13"/>
       <c r="D606" s="39">
@@ -17602,11 +17614,11 @@
     <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C608" s="13"/>
       <c r="D608" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E608" s="9"/>
       <c r="F608" s="20"/>
@@ -17617,14 +17629,14 @@
       <c r="H608" s="39"/>
       <c r="I608" s="9"/>
       <c r="J608" s="11"/>
-      <c r="K608" s="48" t="s">
-        <v>404</v>
+      <c r="K608" s="48">
+        <v>44874</v>
       </c>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C609" s="13"/>
       <c r="D609" s="39">
@@ -18089,15 +18101,17 @@
       <c r="B629" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C629" s="13"/>
+      <c r="C629" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D629" s="39">
         <v>1</v>
       </c>
       <c r="E629" s="9"/>
       <c r="F629" s="20"/>
-      <c r="G629" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G629" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H629" s="39"/>
       <c r="I629" s="9"/>
@@ -18151,10 +18165,10 @@
       </c>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A632" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B632" s="20"/>
+      <c r="A632" s="40"/>
+      <c r="B632" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C632" s="13"/>
       <c r="D632" s="39"/>
       <c r="E632" s="9"/>
@@ -18163,34 +18177,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H632" s="39"/>
+      <c r="H632" s="39">
+        <v>1</v>
+      </c>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
-      <c r="K632" s="20"/>
+      <c r="K632" s="48">
+        <v>45177</v>
+      </c>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B633" s="20"/>
-      <c r="C633" s="13"/>
-      <c r="D633" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B633" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C633" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D633" s="39">
+        <v>1</v>
+      </c>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
-      <c r="G633" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G633" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H633" s="39"/>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
-      <c r="K633" s="20"/>
+      <c r="K633" s="48">
+        <v>45233</v>
+      </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A634" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B634" s="20"/>
+      <c r="A634" s="40"/>
+      <c r="B634" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C634" s="13"/>
       <c r="D634" s="39"/>
       <c r="E634" s="9"/>
@@ -18199,16 +18225,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H634" s="39"/>
+      <c r="H634" s="39">
+        <v>2</v>
+      </c>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
-      <c r="K634" s="20"/>
+      <c r="K634" s="48" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B635" s="20"/>
+      <c r="A635" s="40"/>
+      <c r="B635" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C635" s="13"/>
       <c r="D635" s="39"/>
       <c r="E635" s="9"/>
@@ -18217,54 +18247,69 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H635" s="39"/>
+      <c r="H635" s="39">
+        <v>1</v>
+      </c>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="20"/>
+      <c r="K635" s="48">
+        <v>45210</v>
+      </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B636" s="20"/>
-      <c r="C636" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B636" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C636" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D636" s="39"/>
       <c r="E636" s="9"/>
       <c r="F636" s="20"/>
-      <c r="G636" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H636" s="39"/>
+      <c r="G636" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H636" s="39">
+        <v>1</v>
+      </c>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="20"/>
+      <c r="K636" s="20" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A637" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B637" s="20"/>
+      <c r="A637" s="40"/>
+      <c r="B637" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C637" s="13"/>
       <c r="D637" s="39"/>
       <c r="E637" s="9"/>
       <c r="F637" s="20"/>
-      <c r="G637" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H637" s="39"/>
+      <c r="G637" s="13"/>
+      <c r="H637" s="39">
+        <v>2</v>
+      </c>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="20"/>
+      <c r="K637" s="49" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B638" s="20"/>
+      <c r="A638" s="40"/>
+      <c r="B638" s="20" t="s">
+        <v>391</v>
+      </c>
       <c r="C638" s="13"/>
-      <c r="D638" s="39"/>
+      <c r="D638" s="39">
+        <v>5</v>
+      </c>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
       <c r="G638" s="13" t="str">
@@ -18274,13 +18319,17 @@
       <c r="H638" s="39"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="20"/>
+      <c r="K638" s="49" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B639" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B639" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C639" s="13"/>
       <c r="D639" s="39"/>
       <c r="E639" s="9"/>
@@ -18289,14 +18338,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H639" s="39"/>
+      <c r="H639" s="39">
+        <v>1</v>
+      </c>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="20"/>
+      <c r="K639" s="48">
+        <v>45265</v>
+      </c>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" s="40">
-        <v>45444</v>
+      <c r="A640" s="47" t="s">
+        <v>416</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -18310,11 +18363,11 @@
       <c r="H640" s="39"/>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="20"/>
+      <c r="K640" s="48"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>45474</v>
+        <v>45292</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -18332,7 +18385,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>45505</v>
+        <v>45323</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -18350,7 +18403,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>45536</v>
+        <v>45352</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -18368,7 +18421,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>45566</v>
+        <v>45383</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -18386,7 +18439,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>45597</v>
+        <v>45413</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18404,7 +18457,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>45627</v>
+        <v>45444</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18422,7 +18475,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>45658</v>
+        <v>45474</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -18440,7 +18493,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>45689</v>
+        <v>45505</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18458,7 +18511,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>45717</v>
+        <v>45536</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18476,7 +18529,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>45748</v>
+        <v>45566</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18494,7 +18547,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>45778</v>
+        <v>45597</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18512,7 +18565,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>45809</v>
+        <v>45627</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18530,7 +18583,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>45839</v>
+        <v>45658</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18548,7 +18601,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>45870</v>
+        <v>45689</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18566,7 +18619,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>45901</v>
+        <v>45717</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18584,7 +18637,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>45931</v>
+        <v>45748</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18602,7 +18655,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>45962</v>
+        <v>45778</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18620,7 +18673,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45992</v>
+        <v>45809</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18638,7 +18691,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>46023</v>
+        <v>45839</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18656,7 +18709,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>46054</v>
+        <v>45870</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18674,7 +18727,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>46082</v>
+        <v>45901</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18692,7 +18745,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>46113</v>
+        <v>45931</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18710,7 +18763,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>46143</v>
+        <v>45962</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18728,7 +18781,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>46174</v>
+        <v>45992</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18746,7 +18799,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>46204</v>
+        <v>46023</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18764,7 +18817,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>46235</v>
+        <v>46054</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18782,7 +18835,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>46266</v>
+        <v>46082</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18800,7 +18853,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>46296</v>
+        <v>46113</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18818,7 +18871,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>46327</v>
+        <v>46143</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18836,7 +18889,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>46357</v>
+        <v>46174</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18854,7 +18907,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>46388</v>
+        <v>46204</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18872,7 +18925,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>46419</v>
+        <v>46235</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18890,7 +18943,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>46447</v>
+        <v>46266</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18908,7 +18961,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>46478</v>
+        <v>46296</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18926,7 +18979,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>46508</v>
+        <v>46327</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18944,7 +18997,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>46539</v>
+        <v>46357</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18962,7 +19015,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>46569</v>
+        <v>46388</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18980,7 +19033,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>46600</v>
+        <v>46419</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18998,7 +19051,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>46631</v>
+        <v>46447</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -19016,7 +19069,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>46661</v>
+        <v>46478</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -19034,7 +19087,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>46692</v>
+        <v>46508</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -19052,7 +19105,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>46722</v>
+        <v>46539</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -19070,7 +19123,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>46753</v>
+        <v>46569</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -19088,7 +19141,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>46784</v>
+        <v>46600</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -19106,7 +19159,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>46813</v>
+        <v>46631</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -19124,7 +19177,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>46844</v>
+        <v>46661</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -19142,7 +19195,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>46874</v>
+        <v>46692</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19160,7 +19213,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>46905</v>
+        <v>46722</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19178,7 +19231,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>46935</v>
+        <v>46753</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19196,7 +19249,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>46966</v>
+        <v>46784</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19214,7 +19267,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>46997</v>
+        <v>46813</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -19232,7 +19285,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>47027</v>
+        <v>46844</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -19250,7 +19303,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>47058</v>
+        <v>46874</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -19268,7 +19321,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>47088</v>
+        <v>46905</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -19286,7 +19339,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>47119</v>
+        <v>46935</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -19304,7 +19357,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>47150</v>
+        <v>46966</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -19322,7 +19375,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>47178</v>
+        <v>46997</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -19340,7 +19393,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>47209</v>
+        <v>47027</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -19358,7 +19411,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>47239</v>
+        <v>47058</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -19376,7 +19429,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>47270</v>
+        <v>47088</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -19394,7 +19447,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>47300</v>
+        <v>47119</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -19412,7 +19465,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>47331</v>
+        <v>47150</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -19430,7 +19483,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>47362</v>
+        <v>47178</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -19448,7 +19501,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>47392</v>
+        <v>47209</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -19466,7 +19519,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>47423</v>
+        <v>47239</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -19484,7 +19537,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>47453</v>
+        <v>47270</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -19502,7 +19555,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>47484</v>
+        <v>47300</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -19520,7 +19573,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>47515</v>
+        <v>47331</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -19538,7 +19591,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>47543</v>
+        <v>47362</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -19556,7 +19609,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>47574</v>
+        <v>47392</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -19574,7 +19627,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>47604</v>
+        <v>47423</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -19592,7 +19645,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>47635</v>
+        <v>47453</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -19610,7 +19663,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>47665</v>
+        <v>47484</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -19628,7 +19681,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>47696</v>
+        <v>47515</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -19646,7 +19699,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>47727</v>
+        <v>47543</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -19664,7 +19717,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>47757</v>
+        <v>47574</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -19682,7 +19735,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>47788</v>
+        <v>47604</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -19700,7 +19753,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>47818</v>
+        <v>47635</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -19718,7 +19771,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>47849</v>
+        <v>47665</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -19736,7 +19789,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>47880</v>
+        <v>47696</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19754,7 +19807,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>47908</v>
+        <v>47727</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19772,7 +19825,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>47939</v>
+        <v>47757</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19790,7 +19843,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>47969</v>
+        <v>47788</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19808,7 +19861,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>48000</v>
+        <v>47818</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19826,7 +19879,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>48030</v>
+        <v>47849</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19844,7 +19897,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>48061</v>
+        <v>47880</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19862,7 +19915,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>48092</v>
+        <v>47908</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19880,7 +19933,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>48122</v>
+        <v>47939</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19897,7 +19950,9 @@
       <c r="K728" s="20"/>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A729" s="40"/>
+      <c r="A729" s="40">
+        <v>47969</v>
+      </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
       <c r="D729" s="39"/>
@@ -19913,7 +19968,9 @@
       <c r="K729" s="20"/>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A730" s="40"/>
+      <c r="A730" s="40">
+        <v>48000</v>
+      </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
       <c r="D730" s="39"/>
@@ -19929,7 +19986,9 @@
       <c r="K730" s="20"/>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A731" s="40"/>
+      <c r="A731" s="40">
+        <v>48030</v>
+      </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
       <c r="D731" s="39"/>
@@ -19945,7 +20004,9 @@
       <c r="K731" s="20"/>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A732" s="40"/>
+      <c r="A732" s="40">
+        <v>48061</v>
+      </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
       <c r="D732" s="39"/>
@@ -19961,7 +20022,9 @@
       <c r="K732" s="20"/>
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A733" s="40"/>
+      <c r="A733" s="40">
+        <v>48092</v>
+      </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
       <c r="D733" s="39"/>
@@ -19977,7 +20040,9 @@
       <c r="K733" s="20"/>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A734" s="40"/>
+      <c r="A734" s="40">
+        <v>48122</v>
+      </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
       <c r="D734" s="39"/>
@@ -29433,20 +29498,116 @@
       <c r="K1324" s="20"/>
     </row>
     <row r="1325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1325" s="50"/>
-      <c r="B1325" s="15"/>
-      <c r="C1325" s="41"/>
-      <c r="D1325" s="42"/>
-      <c r="E1325" s="51"/>
-      <c r="F1325" s="15"/>
+      <c r="A1325" s="40"/>
+      <c r="B1325" s="20"/>
+      <c r="C1325" s="13"/>
+      <c r="D1325" s="39"/>
+      <c r="E1325" s="9"/>
+      <c r="F1325" s="20"/>
       <c r="G1325" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H1325" s="42"/>
-      <c r="I1325" s="51"/>
-      <c r="J1325" s="12"/>
-      <c r="K1325" s="15"/>
+      <c r="H1325" s="39"/>
+      <c r="I1325" s="9"/>
+      <c r="J1325" s="11"/>
+      <c r="K1325" s="20"/>
+    </row>
+    <row r="1326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1326" s="40"/>
+      <c r="B1326" s="20"/>
+      <c r="C1326" s="13"/>
+      <c r="D1326" s="39"/>
+      <c r="E1326" s="9"/>
+      <c r="F1326" s="20"/>
+      <c r="G1326" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1326" s="39"/>
+      <c r="I1326" s="9"/>
+      <c r="J1326" s="11"/>
+      <c r="K1326" s="20"/>
+    </row>
+    <row r="1327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1327" s="40"/>
+      <c r="B1327" s="20"/>
+      <c r="C1327" s="13"/>
+      <c r="D1327" s="39"/>
+      <c r="E1327" s="9"/>
+      <c r="F1327" s="20"/>
+      <c r="G1327" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1327" s="39"/>
+      <c r="I1327" s="9"/>
+      <c r="J1327" s="11"/>
+      <c r="K1327" s="20"/>
+    </row>
+    <row r="1328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1328" s="40"/>
+      <c r="B1328" s="20"/>
+      <c r="C1328" s="13"/>
+      <c r="D1328" s="39"/>
+      <c r="E1328" s="9"/>
+      <c r="F1328" s="20"/>
+      <c r="G1328" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1328" s="39"/>
+      <c r="I1328" s="9"/>
+      <c r="J1328" s="11"/>
+      <c r="K1328" s="20"/>
+    </row>
+    <row r="1329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1329" s="40"/>
+      <c r="B1329" s="20"/>
+      <c r="C1329" s="13"/>
+      <c r="D1329" s="39"/>
+      <c r="E1329" s="9"/>
+      <c r="F1329" s="20"/>
+      <c r="G1329" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1329" s="39"/>
+      <c r="I1329" s="9"/>
+      <c r="J1329" s="11"/>
+      <c r="K1329" s="20"/>
+    </row>
+    <row r="1330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1330" s="40"/>
+      <c r="B1330" s="20"/>
+      <c r="C1330" s="13"/>
+      <c r="D1330" s="39"/>
+      <c r="E1330" s="9"/>
+      <c r="F1330" s="20"/>
+      <c r="G1330" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1330" s="39"/>
+      <c r="I1330" s="9"/>
+      <c r="J1330" s="11"/>
+      <c r="K1330" s="20"/>
+    </row>
+    <row r="1331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1331" s="50"/>
+      <c r="B1331" s="15"/>
+      <c r="C1331" s="41"/>
+      <c r="D1331" s="42"/>
+      <c r="E1331" s="51"/>
+      <c r="F1331" s="15"/>
+      <c r="G1331" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1331" s="42"/>
+      <c r="I1331" s="51"/>
+      <c r="J1331" s="12"/>
+      <c r="K1331" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
